--- a/test xlxs.xlsx
+++ b/test xlxs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seedgenbmo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5117BE58-5645-43FC-97F7-A9185DAF85FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60568D8F-F7DA-474A-8896-03DAB41ADCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="49545" yWindow="2565" windowWidth="16185" windowHeight="11175" xr2:uid="{7EC7556B-8C27-4B36-8D5F-EE4735BBC83E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>버전1</t>
+    <t>버전2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,9 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8DEB84-2946-4E52-86AB-DB77D411AD76}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
